--- a/biology/Zoologie/Charaxes_plateni/Charaxes_plateni.xlsx
+++ b/biology/Zoologie/Charaxes_plateni/Charaxes_plateni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases plateni est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes plateni a été nommé par Staudinger en 1889[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes plateni a été nommé par Staudinger en 1889.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes plateni fait partie du clade bernardus et c'est un de ceux qui s'est différencié le plus tôt. En effet tout le clade bernardus descendrait d'un ancêtre commun de Palawan, ancêtre des deux espèces endémiques de Palawan, Charaxes bupalus et Charaxes plateni[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes plateni fait partie du clade bernardus et c'est un de ceux qui s'est différencié le plus tôt. En effet tout le clade bernardus descendrait d'un ancêtre commun de Palawan, ancêtre des deux espèces endémiques de Palawan, Charaxes bupalus et Charaxes plateni.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes  plateni est un grand papillon au dessus cuivre et marron. Les ailes antérieures sont très concaves avec une très large bande marginale marron qui, aux postérieures  va en s'amincissant et n'occupe que les 2/3 de la bordure de l'aile (elle est absente vers la partie anale). Les ailes postérieures s'ornent d'une ligne submarginale de taches marron pupillées de blanc.
 Le dessous est beige avec des veines foncées bien visibles.
@@ -602,12 +620,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent uniquement à Palawan,  une ile des Philippines.
+Sur les autres projets Wikimedia :
+Charaxes plateni, sur Wikimedia CommonsCharaxes plateni, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -637,12 +660,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent uniquement à Palawan,  une ile des Philippines[1].
-Sur les autres projets Wikimedia :
-Charaxes plateni, sur Wikimedia CommonsCharaxes plateni, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
